--- a/config_files/format.xlsx
+++ b/config_files/format.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27263153-473F-6F43-8EEC-0B54EEDE8404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB6286E-F63A-944F-9A56-BAF355D17309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
   <si>
     <t>系统A标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,32 +356,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisTran</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-[:Associate]-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-[:Include]-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name,mRID,nodeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>BT_SPACE_NANJJY</t>
+  </si>
+  <si>
+    <t>BT_SPACE_HNDRVP</t>
+  </si>
+  <si>
+    <t>BT_681429AA</t>
+  </si>
+  <si>
+    <t>BT_DF70A51F</t>
+  </si>
+  <si>
+    <t>BT_11CBCA37</t>
+  </si>
+  <si>
+    <t>BT_1F601C11</t>
+  </si>
+  <si>
+    <t>-[:CONNECT]-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONS_NAME,ELEC_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP_NAME,MP_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT_AADF1F1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONS_NAME</t>
+  </si>
+  <si>
+    <t>MP_NAME</t>
   </si>
 </sst>
 </file>
@@ -2573,66 +2589,51 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2646,51 +2647,42 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2704,66 +2696,54 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2777,66 +2757,52 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/config_files/format.xlsx
+++ b/config_files/format.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB6286E-F63A-944F-9A56-BAF355D17309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49D9F1A-3345-4FE6-9864-BE9533D3E162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5200" yWindow="130" windowWidth="16200" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="填写示例及说明" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="49">
   <si>
     <t>系统A标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,55 +356,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BT_SPACE_NANJJY</t>
-  </si>
-  <si>
-    <t>BT_SPACE_HNDRVP</t>
-  </si>
-  <si>
-    <t>BT_681429AA</t>
-  </si>
-  <si>
-    <t>BT_DF70A51F</t>
-  </si>
-  <si>
-    <t>BT_11CBCA37</t>
-  </si>
-  <si>
-    <t>BT_1F601C11</t>
-  </si>
-  <si>
-    <t>-[:CONNECT]-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONS_NAME,ELEC_ADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP_NAME,MP_ADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BT_AADF1F1C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TG_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONS_NAME</t>
-  </si>
-  <si>
-    <t>MP_NAME</t>
+    <t>yx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisTran</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-[:Associate]-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-[:Include]-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name,mRID,nodeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,7 +811,7 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
@@ -838,7 +822,7 @@
     <col min="26" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
@@ -894,7 +878,7 @@
       <c r="AQ1" s="8"/>
       <c r="AR1" s="8"/>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -904,7 +888,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -965,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1035,7 +1019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1105,7 +1089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1170,7 +1154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1227,7 +1211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1278,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1299,7 +1283,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1351,7 +1335,7 @@
       <c r="AQ10" s="10"/>
       <c r="AR10" s="10"/>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1397,7 +1381,7 @@
       <c r="AQ11" s="10"/>
       <c r="AR11" s="10"/>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1443,7 +1427,7 @@
       <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1489,7 +1473,7 @@
       <c r="AQ13" s="10"/>
       <c r="AR13" s="10"/>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1535,7 +1519,7 @@
       <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1581,7 +1565,7 @@
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1627,7 +1611,7 @@
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1673,7 +1657,7 @@
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1719,7 +1703,7 @@
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1765,7 +1749,7 @@
       <c r="AQ19" s="10"/>
       <c r="AR19" s="10"/>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1811,7 +1795,7 @@
       <c r="AQ20" s="10"/>
       <c r="AR20" s="10"/>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1857,7 +1841,7 @@
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1903,7 +1887,7 @@
       <c r="AQ22" s="10"/>
       <c r="AR22" s="10"/>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1949,7 +1933,7 @@
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1995,7 +1979,7 @@
       <c r="AQ24" s="10"/>
       <c r="AR24" s="10"/>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2041,7 +2025,7 @@
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2087,7 +2071,7 @@
       <c r="AQ26" s="10"/>
       <c r="AR26" s="10"/>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2133,7 +2117,7 @@
       <c r="AQ27" s="10"/>
       <c r="AR27" s="10"/>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2179,7 +2163,7 @@
       <c r="AQ28" s="10"/>
       <c r="AR28" s="10"/>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2225,7 +2209,7 @@
       <c r="AQ29" s="10"/>
       <c r="AR29" s="10"/>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2271,7 +2255,7 @@
       <c r="AQ30" s="10"/>
       <c r="AR30" s="10"/>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2317,7 +2301,7 @@
       <c r="AQ31" s="10"/>
       <c r="AR31" s="10"/>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2363,7 +2347,7 @@
       <c r="AQ32" s="10"/>
       <c r="AR32" s="10"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2373,7 +2357,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2383,7 +2367,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2393,7 +2377,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2403,7 +2387,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2413,7 +2397,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2423,7 +2407,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2433,7 +2417,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2443,7 +2427,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2453,7 +2437,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2463,7 +2447,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2473,7 +2457,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2483,7 +2467,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2493,7 +2477,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2503,7 +2487,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2513,7 +2497,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2523,7 +2507,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2533,7 +2517,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2543,7 +2527,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2553,7 +2537,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2577,7 +2561,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C填写说明</oddHeader>
   </headerFooter>
@@ -2589,51 +2573,66 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2647,42 +2646,51 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2696,54 +2704,66 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="3" width="24" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2757,52 +2777,66 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
